--- a/MSBA5509-Optimization/ch2/ocana-jackie-ch2-hw.xlsx
+++ b/MSBA5509-Optimization/ch2/ocana-jackie-ch2-hw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jackie/Desktop/my-school-files/MSBA5509-Optimization/ch2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jackie/Desktop/Masters-Business-Analytics-Dominican-University-CA/MSBA5509-Optimization/ch2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05012DC-FCE8-4A4C-B7A9-70E6BE581D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3BF8F-3BAC-754F-802D-A430F046CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12200" yWindow="1200" windowWidth="24040" windowHeight="16960" activeTab="4" xr2:uid="{10FE845C-B383-6F4E-9F0A-2E69CF4421AF}"/>
+    <workbookView xWindow="9560" yWindow="1200" windowWidth="24040" windowHeight="16960" activeTab="4" xr2:uid="{10FE845C-B383-6F4E-9F0A-2E69CF4421AF}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="5" r:id="rId1"/>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>Resource</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>20points</t>
+  </si>
+  <si>
+    <t>18points</t>
   </si>
 </sst>
 </file>
@@ -819,6 +822,8 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,8 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1147,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1B0BB3-A3C6-E147-B32F-B8B7F8B92240}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -1188,12 +1191,12 @@
       <c r="D4" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1381,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6E3F21-CF5E-1941-BB4A-7CBB3BCC20EF}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -1393,95 +1396,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="J6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1630,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86D4CA9-C8C6-7441-A994-2E9A7C3F1A26}">
   <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -1671,12 +1674,12 @@
       <c r="D4" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1899,7 +1902,7 @@
   <dimension ref="A3:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A40" sqref="A39:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1931,12 +1934,12 @@
       <c r="D4" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -2124,10 +2127,10 @@
       <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
+      <c r="A39" s="26"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="26" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2144,7 +2147,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2157,12 +2160,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2183,6 +2187,9 @@
       <c r="G3" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="H3" s="26" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2208,12 +2215,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -2538,7 +2545,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>105</v>
       </c>
     </row>
